--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>sdflkj</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>sdflkj3333</t>
+  </si>
+  <si>
+    <t>sdfsd33</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,6 +124,22 @@
       </c>
       <c r="G1" t="s" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>sdflkj</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>sdflkj3333</t>
-  </si>
-  <si>
-    <t>sdfsd33</t>
   </si>
 </sst>
 </file>
@@ -97,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,22 +112,6 @@
       </c>
       <c r="G1" t="s" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>2232</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,6 +118,14 @@
       </c>
       <c r="G1" t="s" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -36,10 +36,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>2232</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,13 +116,8 @@
       <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="H1" t="s" s="1">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -77,47 +92,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -134,25 +201,25 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -184,6 +187,32 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -106,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -213,6 +213,32 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{2C242B0F-F88D-4EEB-939A-D3137A7ADD59}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId3" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId4" sheetId="2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -55,26 +63,49 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>yoni</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>yonatan</t>
+  </si>
+  <si>
+    <t>shomer</t>
+  </si>
+  <si>
+    <t>yoni@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +113,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -94,25 +125,338 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -138,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -157,14 +501,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -183,14 +527,14 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -209,27 +553,56 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>3030303</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{603085DA-CFD7-485D-A643-FB42040D35A4}"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row ht="18.75" r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>yoni@gmail.com</t>
+  </si>
+  <si>
+    <t>Lilach</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>lila</t>
+  </si>
+  <si>
+    <t>naor</t>
+  </si>
+  <si>
+    <t>lilach@gmail.com</t>
+  </si>
+  <si>
+    <t>054266</t>
   </si>
 </sst>
 </file>
@@ -448,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -584,6 +602,32 @@
       </c>
       <c r="H5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B012AAA7-2F60-4893-89E0-48A2ED550401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId3" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId4" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -55,26 +63,43 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Yoni</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>יונתן</t>
+  </si>
+  <si>
+    <t>שומר</t>
+  </si>
+  <si>
+    <t>yo@gmail.com</t>
+  </si>
+  <si>
+    <t>0547712222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +107,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -95,24 +120,334 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -138,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -157,14 +492,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -183,14 +518,14 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -209,53 +544,53 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -279,6 +614,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B012AAA7-2F60-4893-89E0-48A2ED550401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF12C9-F8FA-4229-AD2F-9ADDAF573433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -47,22 +47,52 @@
     <t>admin</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>עיר</t>
+  </si>
+  <si>
+    <t>רחוב</t>
+  </si>
+  <si>
+    <t>סהכ שותפים</t>
+  </si>
+  <si>
+    <t>שותפים חסרים</t>
+  </si>
+  <si>
+    <t>חדרים</t>
+  </si>
+  <si>
+    <t>מחיר</t>
+  </si>
+  <si>
+    <t>סוג הנכס</t>
+  </si>
+  <si>
+    <t>מעלית</t>
+  </si>
+  <si>
+    <t>חניה</t>
+  </si>
+  <si>
+    <t>מיזוג</t>
+  </si>
+  <si>
+    <t>מרפסת</t>
+  </si>
+  <si>
+    <t>ממד</t>
+  </si>
+  <si>
+    <t>מחסן</t>
+  </si>
+  <si>
+    <t>גישה לנכים</t>
+  </si>
+  <si>
+    <t>מרוהטת</t>
+  </si>
+  <si>
+    <t>חיות מחמד</t>
   </si>
   <si>
     <t>Yoni</t>
@@ -78,9 +108,6 @@
   </si>
   <si>
     <t>yo@gmail.com</t>
-  </si>
-  <si>
-    <t>0547712222</t>
   </si>
 </sst>
 </file>
@@ -442,10 +469,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -474,23 +504,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -500,23 +530,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -526,23 +544,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -553,22 +559,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>547712222</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -584,33 +590,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF12C9-F8FA-4229-AD2F-9ADDAF573433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{20BF12C9-F8FA-4229-AD2F-9ADDAF573433}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11385" windowWidth="21600" xWindow="2100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1080"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -108,12 +108,112 @@
   </si>
   <si>
     <t>yo@gmail.com</t>
+  </si>
+  <si>
+    <t>vvvv</t>
+  </si>
+  <si>
+    <t>vfvvv</t>
+  </si>
+  <si>
+    <t>vvv</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>csc</t>
+  </si>
+  <si>
+    <t>efc</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>jkj</t>
+  </si>
+  <si>
+    <t>kjs</t>
+  </si>
+  <si>
+    <t>njj</t>
+  </si>
+  <si>
+    <t>jw</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>hfghf</t>
+  </si>
+  <si>
+    <t>ghf</t>
+  </si>
+  <si>
+    <t>hgfh</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>gfh</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ספיר</t>
+  </si>
+  <si>
+    <t>שמש</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Sapi</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,17 +247,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,10 +274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -212,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -264,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,21 +475,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -406,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -458,15 +558,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -474,10 +574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,20 +683,254 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,6 +984,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{20BF12C9-F8FA-4229-AD2F-9ADDAF573433}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5AC386C8-A637-4487-B045-CC050EBA73CE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11385" windowWidth="21600" xWindow="2100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1080"/>
+    <workbookView windowHeight="11385" windowWidth="21600" xWindow="360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="645"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -122,51 +122,6 @@
     <t>vv</t>
   </si>
   <si>
-    <t>csc</t>
-  </si>
-  <si>
-    <t>efc</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>jkj</t>
-  </si>
-  <si>
-    <t>kjs</t>
-  </si>
-  <si>
-    <t>njj</t>
-  </si>
-  <si>
-    <t>jw</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>fg</t>
   </si>
   <si>
@@ -207,6 +162,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -566,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -702,138 +660,138 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.0</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0</v>
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -841,79 +799,27 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5AC386C8-A637-4487-B045-CC050EBA73CE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{69D3C271-A0E3-49F7-B967-6AAC7E7B9156}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11385" windowWidth="21600" xWindow="360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="645"/>
+    <workbookView activeTab="1" windowHeight="11385" windowWidth="21600" xWindow="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="555"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -65,9 +65,24 @@
     <t>מחיר</t>
   </si>
   <si>
+    <t>תיאור</t>
+  </si>
+  <si>
     <t>סוג הנכס</t>
   </si>
   <si>
+    <t>קומה</t>
+  </si>
+  <si>
+    <t>גינה</t>
+  </si>
+  <si>
+    <t>מספר דירה</t>
+  </si>
+  <si>
+    <t>מספר קומות</t>
+  </si>
+  <si>
     <t>מעלית</t>
   </si>
   <si>
@@ -165,6 +180,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sdasdasdasd asdasd</t>
+  </si>
+  <si>
+    <t>חיות</t>
   </si>
 </sst>
 </file>
@@ -526,14 +553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-  </cols>
   <sheetData>
     <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -617,19 +641,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>547712222</v>
@@ -643,22 +667,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -669,22 +693,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -695,22 +719,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -721,22 +745,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -747,22 +771,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -773,22 +797,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -797,27 +821,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.0</v>
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -830,13 +854,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,6 +913,89 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>222</v>
+      </c>
+      <c r="J2">
+        <v>222</v>
+      </c>
+      <c r="K2">
+        <v>222</v>
+      </c>
+      <c r="L2">
+        <v>222</v>
+      </c>
+      <c r="M2">
+        <v>222</v>
+      </c>
+      <c r="N2">
+        <v>222</v>
+      </c>
+      <c r="O2">
+        <v>222</v>
+      </c>
+      <c r="P2">
+        <v>222</v>
+      </c>
+      <c r="Q2">
+        <v>222</v>
+      </c>
+      <c r="R2">
+        <v>222</v>
+      </c>
+      <c r="S2">
+        <v>222</v>
+      </c>
+      <c r="T2">
+        <v>222</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{69D3C271-A0E3-49F7-B967-6AAC7E7B9156}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F0DD3-5E46-4410-9B21-E09FC1903E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11385" windowWidth="21600" xWindow="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="555"/>
+    <workbookView xWindow="4680" yWindow="555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -192,13 +192,15 @@
   </si>
   <si>
     <t>חיות</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,17 +234,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,10 +261,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -297,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -349,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,21 +462,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -491,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -543,23 +545,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,25 +721,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -745,22 +747,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -771,98 +773,46 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +948,75 @@
         <v>56</v>
       </c>
     </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F0DD3-5E46-4410-9B21-E09FC1903E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5D152-DDFB-4E3F-8C5D-D011AC57A441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -41,12 +41,15 @@
     <t>טלפון</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>כמות חיפושים</t>
+  </si>
+  <si>
     <t>עיר</t>
   </si>
   <si>
@@ -155,19 +158,19 @@
     <t>gfh</t>
   </si>
   <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ספיר</t>
+  </si>
+  <si>
+    <t>שמש</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Sap</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>ספיר</t>
-  </si>
-  <si>
-    <t>שמש</t>
   </si>
   <si>
     <t>052</t>
@@ -553,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,11 +586,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,120 +606,102 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>547712222</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
+        <v>38</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
+        <v>44</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -733,24 +715,21 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="b">
+        <v>50</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -759,41 +738,35 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
+        <v>53</v>
+      </c>
+      <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -804,112 +777,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>222</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2">
         <v>222</v>
       </c>
-      <c r="J2">
-        <v>222</v>
+      <c r="J2" t="s">
+        <v>56</v>
       </c>
       <c r="K2">
         <v>222</v>
@@ -941,79 +920,91 @@
       <c r="T2">
         <v>222</v>
       </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>222</v>
+      </c>
+      <c r="V2">
+        <v>222</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5D152-DDFB-4E3F-8C5D-D011AC57A441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{87A5D152-DDFB-4E3F-8C5D-D011AC57A441}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -204,6 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,17 +238,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +265,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -302,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -354,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -465,21 +466,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -496,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -548,15 +549,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -564,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,13 +772,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -785,7 +786,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,6 +1009,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastl\Documents\GitHub\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{87A5D152-DDFB-4E3F-8C5D-D011AC57A441}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{016AD528-8308-40D6-BE0F-DC27D0F488D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Lilach</t>
+  </si>
+  <si>
+    <t>lilach</t>
+  </si>
+  <si>
+    <t>naor</t>
+  </si>
+  <si>
+    <t>lilach@gmail.com</t>
+  </si>
+  <si>
+    <t>054266</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -611,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -622,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -633,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -656,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -679,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -702,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -725,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -748,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -769,6 +784,29 @@
       </c>
       <c r="G10" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -784,9 +822,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -934,7 +972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastl\Documents\GitHub\ALYS-JavaSwing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{016AD528-8308-40D6-BE0F-DC27D0F488D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53281C51-E7D6-43D6-99F4-04FE0D8DB176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -185,9 +185,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>asd</t>
   </si>
   <si>
@@ -213,13 +210,42 @@
   </si>
   <si>
     <t>054266</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sdfdf</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>בניין</t>
+  </si>
+  <si>
+    <t>נתניה</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>תל אביב</t>
+  </si>
+  <si>
+    <t>קרקע</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,17 +279,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -276,14 +302,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -318,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -370,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -481,21 +507,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -512,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -564,23 +590,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18" r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -637,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -648,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -671,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -694,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -717,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -740,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -763,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -786,45 +812,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -909,13 +943,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -927,10 +961,10 @@
         <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2">
-        <v>222</v>
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
       </c>
       <c r="L2">
         <v>222</v>
@@ -969,10 +1003,10 @@
         <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -983,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -991,8 +1025,8 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>53</v>
+      <c r="G3">
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
@@ -1004,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>53</v>
@@ -1028,7 +1062,7 @@
         <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
@@ -1046,7 +1080,451 @@
         <v>53</v>
       </c>
     </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>222</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>222</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>222</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastl\Documents\GitHub\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53281C51-E7D6-43D6-99F4-04FE0D8DB176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CAEC767B-E14C-42BA-AC57-52C0189D7A26}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Sapi</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -218,21 +215,9 @@
     <t>asdsad</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sdfdf</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
     <t>בניין</t>
   </si>
   <si>
-    <t>נתניה</t>
-  </si>
-  <si>
     <t>ירושלים</t>
   </si>
   <si>
@@ -240,12 +225,40 @@
   </si>
   <si>
     <t>קרקע</t>
+  </si>
+  <si>
+    <t>Lilach26</t>
+  </si>
+  <si>
+    <t>lilach@ngjrnj</t>
+  </si>
+  <si>
+    <t>05454</t>
+  </si>
+  <si>
+    <t>Sapir</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>shemesh@gmail.com</t>
+  </si>
+  <si>
+    <t>0526478</t>
+  </si>
+  <si>
+    <t>kus</t>
+  </si>
+  <si>
+    <t>קרקעי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,17 +292,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,14 +315,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -344,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,21 +520,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -538,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -590,23 +603,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -663,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -674,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -697,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -720,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -743,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -766,12 +779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -786,79 +799,125 @@
         <v>50</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A6" sqref="A6:Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -943,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -961,10 +1020,10 @@
         <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>222</v>
@@ -1003,10 +1062,10 @@
         <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1017,70 +1076,70 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1091,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1112,16 +1171,16 @@
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1154,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1165,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1183,19 +1242,19 @@
         <v>222</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1228,51 +1287,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.0</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1302,229 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>222</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>222</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastl\Documents\GitHub\ALYS-JavaSwing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CAEC767B-E14C-42BA-AC57-52C0189D7A26}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC4BD6-5D65-4A56-8CBC-ACFDB9F6D023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -249,16 +249,12 @@
   </si>
   <si>
     <t>kus</t>
-  </si>
-  <si>
-    <t>קרקעי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,17 +288,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,14 +311,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -357,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -409,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -520,21 +516,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -551,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -603,23 +599,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18" r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -665,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -676,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -687,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -710,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -733,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -756,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -779,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -802,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -825,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -848,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -871,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -895,29 +891,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Y17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1065,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1087,11 +1083,11 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>222</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
@@ -1139,7 +1135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1287,15 +1283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>75</v>
@@ -1303,23 +1299,23 @@
       <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.0</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -1330,8 +1326,8 @@
       <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.0</v>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1362,6 +1358,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC4BD6-5D65-4A56-8CBC-ACFDB9F6D023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AEE72968-C88D-4046-9E77-ABCD62C0F7C1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="125">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -41,7 +41,10 @@
     <t>טלפון</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Analyst</t>
   </si>
   <si>
     <t>id</t>
@@ -119,6 +122,9 @@
     <t>sho</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>יונתן</t>
   </si>
   <si>
@@ -170,30 +176,18 @@
     <t>שמש</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>052</t>
   </si>
   <si>
     <t>Sapi</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sdasdasdasd asdasd</t>
-  </si>
-  <si>
-    <t>חיות</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Lilach</t>
   </si>
   <si>
@@ -209,52 +203,206 @@
     <t>054266</t>
   </si>
   <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>תמר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דירה מרוהטת </t>
+  </si>
+  <si>
+    <t>בניין</t>
+  </si>
+  <si>
+    <t>תל אביב</t>
+  </si>
+  <si>
+    <t>מבצע קדש</t>
+  </si>
+  <si>
+    <t>דירה משופצת</t>
+  </si>
+  <si>
+    <t>מבצע קלשון</t>
+  </si>
+  <si>
+    <t>דירה עברה שיפוץ  לאחרונה</t>
+  </si>
+  <si>
+    <t>קרקע</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>בניין</t>
-  </si>
-  <si>
-    <t>ירושלים</t>
-  </si>
-  <si>
-    <t>תל אביב</t>
-  </si>
-  <si>
-    <t>קרקע</t>
-  </si>
-  <si>
-    <t>Lilach26</t>
-  </si>
-  <si>
-    <t>lilach@ngjrnj</t>
-  </si>
-  <si>
-    <t>05454</t>
-  </si>
-  <si>
-    <t>Sapir</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>shemesh@gmail.com</t>
-  </si>
-  <si>
-    <t>0526478</t>
-  </si>
-  <si>
-    <t>kus</t>
+    <t>מבצע נחשון</t>
+  </si>
+  <si>
+    <t>דירה מושקעת ומרוהטת</t>
+  </si>
+  <si>
+    <t>נתניה</t>
+  </si>
+  <si>
+    <t>מבצע ליטני</t>
+  </si>
+  <si>
+    <t>דירה יפה ומסודרת</t>
+  </si>
+  <si>
+    <t>מסגר</t>
+  </si>
+  <si>
+    <t>דירה מרוהטת חלקית, נמצאת באזור טוב</t>
+  </si>
+  <si>
+    <t>בנאי</t>
+  </si>
+  <si>
+    <t>זית</t>
+  </si>
+  <si>
+    <t>אשדוד</t>
+  </si>
+  <si>
+    <t>נחל לכיש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בניין </t>
+  </si>
+  <si>
+    <t>חולון</t>
+  </si>
+  <si>
+    <t>מרים הנביאה</t>
+  </si>
+  <si>
+    <t>גבעת חלפון</t>
+  </si>
+  <si>
+    <t>מודיעין</t>
+  </si>
+  <si>
+    <t>אליהו הנביא</t>
+  </si>
+  <si>
+    <t>כפר סבא</t>
+  </si>
+  <si>
+    <t>בנימין זאב הרצל</t>
+  </si>
+  <si>
+    <t>דוד בן גוריון</t>
+  </si>
+  <si>
+    <t>אליעזר בן יהודה</t>
+  </si>
+  <si>
+    <t>הרצליה</t>
+  </si>
+  <si>
+    <t>חיים ויצמן</t>
+  </si>
+  <si>
+    <t>זאב זבוטינסקי</t>
+  </si>
+  <si>
+    <t>הרב קוק</t>
+  </si>
+  <si>
+    <t>יצחק רבין</t>
+  </si>
+  <si>
+    <t>חיים נחמן ביאליק</t>
+  </si>
+  <si>
+    <t>דקל</t>
+  </si>
+  <si>
+    <t>תאנה</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתניה </t>
+  </si>
+  <si>
+    <t>תוכנה</t>
+  </si>
+  <si>
+    <t>רחובות</t>
+  </si>
+  <si>
+    <t>מלחמת העצמאות</t>
+  </si>
+  <si>
+    <t>דיזינגוף</t>
+  </si>
+  <si>
+    <t>גדעון סער</t>
+  </si>
+  <si>
+    <t>ראשון לציון</t>
+  </si>
+  <si>
+    <t>שדרות בן מימון</t>
+  </si>
+  <si>
+    <t>רחוב ביאליק</t>
+  </si>
+  <si>
+    <t>חיפה</t>
+  </si>
+  <si>
+    <t>אבני החושן</t>
+  </si>
+  <si>
+    <t>אדם</t>
+  </si>
+  <si>
+    <t>אחלמה</t>
+  </si>
+  <si>
+    <t>פתח תקווה</t>
+  </si>
+  <si>
+    <t>בדולח</t>
+  </si>
+  <si>
+    <t>יהלם</t>
+  </si>
+  <si>
+    <t>מזכרת בתיה</t>
+  </si>
+  <si>
+    <t>ישפה</t>
+  </si>
+  <si>
+    <t>שדרות מיעמי</t>
+  </si>
+  <si>
+    <t>נחל לקישון</t>
+  </si>
+  <si>
+    <t>כנרת</t>
+  </si>
+  <si>
+    <t>בן יהודה</t>
+  </si>
+  <si>
+    <t>אבן גבירול</t>
+  </si>
+  <si>
+    <t>ביאליק</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,17 +436,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,10 +464,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -353,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -405,7 +554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,21 +665,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -547,7 +696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -599,23 +748,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,374 +786,277 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>547712222</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>547712222</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1013,182 +1065,182 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2">
-        <v>222</v>
-      </c>
-      <c r="M2">
-        <v>222</v>
+        <v>22</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>222</v>
       </c>
-      <c r="O2">
-        <v>222</v>
-      </c>
-      <c r="P2">
-        <v>222</v>
-      </c>
-      <c r="Q2">
-        <v>222</v>
-      </c>
-      <c r="R2">
-        <v>222</v>
-      </c>
-      <c r="S2">
-        <v>222</v>
-      </c>
-      <c r="T2">
-        <v>222</v>
-      </c>
-      <c r="U2">
-        <v>222</v>
-      </c>
-      <c r="V2">
-        <v>222</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>222</v>
+        <v>3500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>222</v>
+        <v>1700</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1200,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1211,19 +1263,19 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1235,46 +1287,46 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>222</v>
+        <v>1800</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
       <c r="S5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>1</v>
@@ -1285,79 +1337,3631 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1900</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>800</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>900</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3700</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4200</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>800</v>
+      </c>
+      <c r="J12" t="s">
         <v>72</v>
       </c>
-      <c r="B6">
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13.1060606060606</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14.148018648018599</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15.189976689976699</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>2900</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16.2319347319347</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>800</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17.273892773892801</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>3200</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>69</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19.357808857808902</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>1500</v>
+      </c>
+      <c r="J18" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20.399766899766899</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1800</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21.4417249417249</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2500</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>22.483682983683</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>4200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>23.525641025641001</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>3500</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2">
+        <v>24.567599067599101</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>800</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2">
+        <v>25.609557109557102</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3700</v>
+      </c>
+      <c r="J24" t="s">
         <v>75</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>26.651515151515198</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>800</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>27.693473193473199</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>1500</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>28.7354312354312</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>900</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2">
+        <v>29.7773892773893</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3700</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30.819347319347301</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>800</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>85</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>31.861305361305401</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4200</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>32.903263403263402</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1500</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2">
+        <v>34.987179487179503</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>1500</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2">
+        <v>36.0291375291375</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4200</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>222</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2">
+        <v>37.071095571095597</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1400</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2">
+        <v>38.113053613053602</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>800</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>39.155011655011698</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>47</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40.196969696969703</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4200</v>
+      </c>
+      <c r="J37" t="s">
         <v>62</v>
       </c>
-      <c r="M6" t="s">
+      <c r="K37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42.280885780885797</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>800</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43.322843822843801</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>2900</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44.364801864801898</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4200</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45.406759906759902</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>2900</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46.448717948718198</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+      <c r="J42" t="s">
         <v>62</v>
       </c>
-      <c r="N6" t="s">
+      <c r="K42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>222</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2">
+        <v>47.490675990676301</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>3500</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2">
+        <v>48.532634032634398</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>1700</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44" t="s">
+        <v>70</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="2">
+        <v>49.574592074592502</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>1800</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N45" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="2">
+        <v>50.616550116550599</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>1900</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" t="s">
+        <v>70</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="2">
+        <v>51.658508158508702</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>2000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="2">
+        <v>52.700466200466799</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>800</v>
+      </c>
+      <c r="J48" t="s">
         <v>62</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2">
+        <v>53.742424242424903</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>900</v>
+      </c>
+      <c r="J49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2">
+        <v>54.784382284383</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3700</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>82</v>
+      </c>
+      <c r="L50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>56.8682983682992</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>1500</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>57.910256410257198</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>800</v>
+      </c>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52">
+        <v>96</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>58.952214452215301</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4000</v>
+      </c>
+      <c r="J53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53">
+        <v>85</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>59.994172494173398</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2800</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" t="s">
+        <v>70</v>
+      </c>
+      <c r="M54" t="s">
+        <v>70</v>
+      </c>
+      <c r="N54">
+        <v>41</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AEE72968-C88D-4046-9E77-ABCD62C0F7C1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4D03E-C62D-4B55-8A28-EA62E177B09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -134,36 +134,6 @@
     <t>yo@gmail.com</t>
   </si>
   <si>
-    <t>vvvv</t>
-  </si>
-  <si>
-    <t>vfvvv</t>
-  </si>
-  <si>
-    <t>vvv</t>
-  </si>
-  <si>
-    <t>vv</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>hfghf</t>
-  </si>
-  <si>
-    <t>ghf</t>
-  </si>
-  <si>
-    <t>hgfh</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>gfh</t>
-  </si>
-  <si>
     <t>Sap</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
     <t>חולון</t>
   </si>
   <si>
-    <t>מרים הנביאה</t>
-  </si>
-  <si>
     <t>גבעת חלפון</t>
   </si>
   <si>
@@ -305,12 +272,6 @@
     <t>חיים ויצמן</t>
   </si>
   <si>
-    <t>זאב זבוטינסקי</t>
-  </si>
-  <si>
-    <t>הרב קוק</t>
-  </si>
-  <si>
     <t>יצחק רבין</t>
   </si>
   <si>
@@ -329,15 +290,9 @@
     <t xml:space="preserve">נתניה </t>
   </si>
   <si>
-    <t>תוכנה</t>
-  </si>
-  <si>
     <t>רחובות</t>
   </si>
   <si>
-    <t>מלחמת העצמאות</t>
-  </si>
-  <si>
     <t>דיזינגוף</t>
   </si>
   <si>
@@ -387,12 +342,6 @@
   </si>
   <si>
     <t>כנרת</t>
-  </si>
-  <si>
-    <t>בן יהודה</t>
-  </si>
-  <si>
-    <t>אבן גבירול</t>
   </si>
   <si>
     <t>ביאליק</t>
@@ -402,7 +351,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,18 +384,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -464,10 +412,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -502,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -554,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -665,21 +613,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -696,7 +644,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -748,23 +696,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,68 +772,68 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -896,76 +844,50 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="false"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1068,10 +990,10 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L2">
         <v>22</v>
@@ -1083,7 +1005,7 @@
         <v>222</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1115,7 +1037,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1124,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -1142,10 +1064,10 @@
         <v>3500</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -1157,7 +1079,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1198,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1216,22 +1138,22 @@
         <v>1700</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1272,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1290,22 +1212,22 @@
         <v>1800</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -1346,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -1364,22 +1286,22 @@
         <v>1900</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1420,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1438,22 +1360,22 @@
         <v>2000</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1494,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1512,22 +1434,22 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1568,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1586,22 +1508,22 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1642,10 +1564,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1660,10 +1582,10 @@
         <v>3700</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1675,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1710,16 +1632,16 @@
         <v>37</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1731,28 +1653,28 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4200</v>
+        <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
@@ -1761,42 +1683,42 @@
         <v>1</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="b">
         <v>1</v>
       </c>
       <c r="V11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>13.1060606060606</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1805,31 +1727,31 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
         <v>1</v>
@@ -1838,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -1850,27 +1772,27 @@
         <v>1</v>
       </c>
       <c r="X12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>13.1060606060606</v>
+        <v>14.148018648018599</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1879,49 +1801,49 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
         <v>1</v>
       </c>
       <c r="U13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -1929,52 +1851,52 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
-        <v>14.148018648018599</v>
+        <v>15.189976689976699</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
@@ -1986,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
         <v>1</v>
@@ -2003,49 +1925,49 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>15.189976689976699</v>
+        <v>16.2319347319347</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>2900</v>
+        <v>800</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -2057,69 +1979,69 @@
         <v>1</v>
       </c>
       <c r="S15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
       </c>
       <c r="U15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>16.2319347319347</v>
+        <v>19.357808857808902</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -2131,75 +2053,75 @@
         <v>1</v>
       </c>
       <c r="S16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
       </c>
       <c r="U16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
-        <v>17.273892773892801</v>
+        <v>20.399766899766899</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
@@ -2208,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -2220,78 +2142,78 @@
         <v>1</v>
       </c>
       <c r="X17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21.4417249417249</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2500</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>47</v>
       </c>
-      <c r="B18" s="2">
-        <v>19.357808857808902</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>1500</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>22</v>
-      </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
       </c>
       <c r="S18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -2299,55 +2221,55 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>20.399766899766899</v>
+        <v>22.483682983683</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
@@ -2356,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -2368,78 +2290,78 @@
         <v>1</v>
       </c>
       <c r="X19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23.525641025641001</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2">
-        <v>21.4417249417249</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
       </c>
       <c r="S20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="b">
         <v>1</v>
       </c>
       <c r="U20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -2447,73 +2369,73 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
-        <v>22.483682983683</v>
+        <v>24.567599067599101</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>4200</v>
+        <v>800</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="b">
         <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -2524,49 +2446,49 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>23.525641025641001</v>
+        <v>25.609557109557102</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3700</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>3500</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" t="s">
-        <v>70</v>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="b">
         <v>1</v>
@@ -2575,39 +2497,39 @@
         <v>1</v>
       </c>
       <c r="S22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>24.567599067599101</v>
+        <v>26.651515151515198</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2622,46 +2544,46 @@
         <v>800</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
       </c>
       <c r="S23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -2672,46 +2594,46 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>25.609557109557102</v>
+        <v>27.693473193473199</v>
       </c>
       <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
       <c r="I24">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2723,22 +2645,22 @@
         <v>1</v>
       </c>
       <c r="S24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
         <v>1</v>
       </c>
       <c r="V24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2746,16 +2668,16 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>26.651515151515198</v>
+        <v>28.7354312354312</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2767,49 +2689,49 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="b">
         <v>1</v>
       </c>
       <c r="S25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -2820,49 +2742,49 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>27.693473193473199</v>
+        <v>29.7773892773893</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="b">
         <v>1</v>
@@ -2871,22 +2793,22 @@
         <v>1</v>
       </c>
       <c r="S26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="b">
         <v>1</v>
       </c>
       <c r="V26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2894,19 +2816,19 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>28.7354312354312</v>
+        <v>30.819347319347301</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2915,49 +2837,49 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
       </c>
       <c r="S27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -2968,19 +2890,19 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>29.7773892773893</v>
+        <v>31.861305361305401</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2989,28 +2911,28 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="b">
         <v>1</v>
@@ -3019,72 +2941,72 @@
         <v>1</v>
       </c>
       <c r="S28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
       </c>
       <c r="V28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>30.819347319347301</v>
+        <v>34.987179487179503</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="b">
         <v>0</v>
@@ -3113,19 +3035,19 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>31.861305361305401</v>
+        <v>36.0291375291375</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -3140,22 +3062,22 @@
         <v>4200</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -3187,19 +3109,19 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
-        <v>32.903263403263402</v>
+        <v>37.071095571095597</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -3211,49 +3133,49 @@
         <v>5</v>
       </c>
       <c r="I31">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="b">
         <v>1</v>
       </c>
       <c r="S31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -3261,73 +3183,73 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2">
-        <v>34.987179487179503</v>
+        <v>38.113053613053602</v>
       </c>
       <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>800</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>1500</v>
-      </c>
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" t="s">
-        <v>70</v>
-      </c>
-      <c r="N32" t="s">
-        <v>70</v>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
       </c>
       <c r="S32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
       </c>
       <c r="U32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -3335,22 +3257,22 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>36.0291375291375</v>
+        <v>39.155011655011698</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3359,25 +3281,25 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>4200</v>
+        <v>1300</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -3392,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="b">
         <v>1</v>
@@ -3409,73 +3331,73 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>37.071095571095597</v>
+        <v>42.280885780885797</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="L34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" t="s">
+        <v>60</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="b">
         <v>1</v>
       </c>
       <c r="S34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="b">
         <v>1</v>
       </c>
       <c r="U34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -3483,22 +3405,22 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
-        <v>38.113053613053602</v>
+        <v>43.322843822843801</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3507,25 +3429,25 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L35">
         <v>2</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -3540,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="b">
         <v>1</v>
@@ -3557,22 +3479,22 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
-        <v>39.155011655011698</v>
+        <v>44.364801864801898</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3581,13 +3503,13 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>1300</v>
+        <v>4200</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -3596,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -3611,75 +3533,75 @@
         <v>1</v>
       </c>
       <c r="S36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="b">
         <v>0</v>
       </c>
       <c r="U36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>40.196969696969703</v>
+        <v>45.406759906759902</v>
       </c>
       <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
       <c r="I37">
-        <v>4200</v>
+        <v>2900</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="b">
         <v>1</v>
@@ -3688,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -3700,78 +3622,78 @@
         <v>1</v>
       </c>
       <c r="X37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>42.280885780885797</v>
+        <v>46.448717948718198</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>222</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="b">
         <v>1</v>
       </c>
       <c r="S38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="b">
         <v>1</v>
       </c>
       <c r="U38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -3779,49 +3701,49 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2">
-        <v>43.322843822843801</v>
+        <v>47.490675990676301</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3836,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" t="b">
         <v>1</v>
@@ -3853,52 +3775,52 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>48.532634032634398</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="2">
-        <v>44.364801864801898</v>
-      </c>
-      <c r="C40">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>4200</v>
+        <v>1700</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="L40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" t="s">
+        <v>60</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="b">
         <v>1</v>
@@ -3907,39 +3829,39 @@
         <v>1</v>
       </c>
       <c r="S40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="b">
         <v>0</v>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2">
-        <v>45.406759906759902</v>
+        <v>49.574592074592502</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -3951,31 +3873,31 @@
         <v>5</v>
       </c>
       <c r="I41">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" t="s">
+        <v>60</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="b">
         <v>1</v>
@@ -3984,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -3996,57 +3918,57 @@
         <v>1</v>
       </c>
       <c r="X41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2">
-        <v>46.448717948718198</v>
+        <v>50.616550116550599</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
         <v>5</v>
       </c>
-      <c r="D42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
       <c r="H42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
-      </c>
-      <c r="L42">
-        <v>22</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>222</v>
+        <v>59</v>
+      </c>
+      <c r="L42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" t="s">
+        <v>60</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
@@ -4078,49 +4000,49 @@
         <v>31</v>
       </c>
       <c r="B43" s="2">
-        <v>47.490675990676301</v>
+        <v>51.658508158508702</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>5</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I43">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K43" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43">
-        <v>12</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="L43" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" t="s">
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="b">
         <v>1</v>
@@ -4152,46 +4074,46 @@
         <v>31</v>
       </c>
       <c r="B44" s="2">
-        <v>48.532634032634398</v>
+        <v>52.700466200466799</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -4226,46 +4148,46 @@
         <v>31</v>
       </c>
       <c r="B45" s="2">
-        <v>49.574592074592502</v>
+        <v>53.742424242424903</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -4297,73 +4219,73 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2">
-        <v>50.616550116550599</v>
+        <v>56.8682983682992</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
       <c r="I46">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="J46" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" t="s">
-        <v>70</v>
-      </c>
-      <c r="N46" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="b">
         <v>1</v>
       </c>
       <c r="S46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -4371,49 +4293,49 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2">
-        <v>51.658508158508702</v>
+        <v>57.910256410257198</v>
       </c>
       <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47">
-        <v>7</v>
-      </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="J47" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K47" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M47" t="s">
-        <v>70</v>
-      </c>
-      <c r="N47" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="N47">
+        <v>96</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -4425,93 +4347,93 @@
         <v>1</v>
       </c>
       <c r="S47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="b">
         <v>1</v>
       </c>
       <c r="V47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
-        <v>52.700466200466799</v>
+        <v>58.952214452215301</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4000</v>
+      </c>
+      <c r="J48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" t="s">
+        <v>60</v>
+      </c>
+      <c r="N48">
         <v>85</v>
       </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>800</v>
-      </c>
-      <c r="J48" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48" t="s">
-        <v>70</v>
-      </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
       <c r="Q48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="b">
         <v>1</v>
       </c>
       <c r="S48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -4519,49 +4441,49 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
-        <v>53.742424242424903</v>
+        <v>59.994172494173398</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K49" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M49" t="s">
-        <v>70</v>
-      </c>
-      <c r="N49" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="N49">
+        <v>41</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -4573,395 +4495,25 @@
         <v>1</v>
       </c>
       <c r="S49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="b">
         <v>1</v>
       </c>
       <c r="V49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="2">
-        <v>54.784382284383</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>3700</v>
-      </c>
-      <c r="J50" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" t="s">
-        <v>82</v>
-      </c>
-      <c r="L50" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>4</v>
-      </c>
-      <c r="O50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" t="b">
-        <v>1</v>
-      </c>
-      <c r="S50" t="b">
-        <v>1</v>
-      </c>
-      <c r="T50" t="b">
-        <v>1</v>
-      </c>
-      <c r="U50" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50" t="b">
-        <v>0</v>
-      </c>
-      <c r="W50" t="b">
-        <v>1</v>
-      </c>
-      <c r="X50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2">
-        <v>56.8682983682992</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>1500</v>
-      </c>
-      <c r="J51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51" t="b">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>8</v>
-      </c>
-      <c r="O51" t="s">
-        <v>70</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>1</v>
-      </c>
-      <c r="R51" t="b">
-        <v>1</v>
-      </c>
-      <c r="S51" t="b">
-        <v>0</v>
-      </c>
-      <c r="T51" t="b">
-        <v>0</v>
-      </c>
-      <c r="U51" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" t="b">
-        <v>1</v>
-      </c>
-      <c r="W51" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2">
-        <v>57.910256410257198</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52">
-        <v>800</v>
-      </c>
-      <c r="J52" t="s">
-        <v>72</v>
-      </c>
-      <c r="K52" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52">
-        <v>96</v>
-      </c>
-      <c r="O52" t="s">
-        <v>70</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>1</v>
-      </c>
-      <c r="R52" t="b">
-        <v>1</v>
-      </c>
-      <c r="S52" t="b">
-        <v>1</v>
-      </c>
-      <c r="T52" t="b">
-        <v>0</v>
-      </c>
-      <c r="U52" t="b">
-        <v>1</v>
-      </c>
-      <c r="V52" t="b">
-        <v>0</v>
-      </c>
-      <c r="W52" t="b">
-        <v>1</v>
-      </c>
-      <c r="X52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2">
-        <v>58.952214452215301</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>4000</v>
-      </c>
-      <c r="J53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L53" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s">
-        <v>70</v>
-      </c>
-      <c r="N53">
-        <v>85</v>
-      </c>
-      <c r="O53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" t="b">
-        <v>1</v>
-      </c>
-      <c r="S53" t="b">
-        <v>1</v>
-      </c>
-      <c r="T53" t="b">
-        <v>1</v>
-      </c>
-      <c r="U53" t="b">
-        <v>0</v>
-      </c>
-      <c r="V53" t="b">
-        <v>0</v>
-      </c>
-      <c r="W53" t="b">
-        <v>1</v>
-      </c>
-      <c r="X53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2">
-        <v>59.994172494173398</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>2800</v>
-      </c>
-      <c r="J54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" t="s">
-        <v>70</v>
-      </c>
-      <c r="M54" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54">
-        <v>41</v>
-      </c>
-      <c r="O54" t="s">
-        <v>70</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54" t="b">
-        <v>1</v>
-      </c>
-      <c r="S54" t="b">
-        <v>0</v>
-      </c>
-      <c r="T54" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" t="b">
-        <v>1</v>
-      </c>
-      <c r="V54" t="b">
-        <v>1</v>
-      </c>
-      <c r="W54" t="b">
-        <v>0</v>
-      </c>
-      <c r="X54" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4D03E-C62D-4B55-8A28-EA62E177B09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B25CE7-94DA-4906-B637-66536CA8339E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="120">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -134,6 +134,36 @@
     <t>yo@gmail.com</t>
   </si>
   <si>
+    <t>vvvv</t>
+  </si>
+  <si>
+    <t>vfvvv</t>
+  </si>
+  <si>
+    <t>vvv</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>hfghf</t>
+  </si>
+  <si>
+    <t>ghf</t>
+  </si>
+  <si>
+    <t>hgfh</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>gfh</t>
+  </si>
+  <si>
     <t>Sap</t>
   </si>
   <si>
@@ -155,9 +185,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Lilach</t>
   </si>
   <si>
@@ -245,6 +272,9 @@
     <t>חולון</t>
   </si>
   <si>
+    <t>מרים הנביאה</t>
+  </si>
+  <si>
     <t>גבעת חלפון</t>
   </si>
   <si>
@@ -260,9 +290,6 @@
     <t>בנימין זאב הרצל</t>
   </si>
   <si>
-    <t>דוד בן גוריון</t>
-  </si>
-  <si>
     <t>אליעזר בן יהודה</t>
   </si>
   <si>
@@ -272,6 +299,12 @@
     <t>חיים ויצמן</t>
   </si>
   <si>
+    <t>זאב זבוטינסקי</t>
+  </si>
+  <si>
+    <t>הרב קוק</t>
+  </si>
+  <si>
     <t>יצחק רבין</t>
   </si>
   <si>
@@ -290,15 +323,18 @@
     <t xml:space="preserve">נתניה </t>
   </si>
   <si>
+    <t>תוכנה</t>
+  </si>
+  <si>
     <t>רחובות</t>
   </si>
   <si>
+    <t>מלחמת העצמאות</t>
+  </si>
+  <si>
     <t>דיזינגוף</t>
   </si>
   <si>
-    <t>גדעון סער</t>
-  </si>
-  <si>
     <t>ראשון לציון</t>
   </si>
   <si>
@@ -323,9 +359,6 @@
     <t>פתח תקווה</t>
   </si>
   <si>
-    <t>בדולח</t>
-  </si>
-  <si>
     <t>יהלם</t>
   </si>
   <si>
@@ -342,6 +375,9 @@
   </si>
   <si>
     <t>כנרת</t>
+  </si>
+  <si>
+    <t>אבן גבירול</t>
   </si>
   <si>
     <t>ביאליק</t>
@@ -704,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,42 +808,42 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -818,53 +854,79 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -875,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,73 +1025,73 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>22</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>222</v>
-      </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
         <v>1</v>
       </c>
       <c r="U2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -1037,52 +1099,52 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
@@ -1094,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="b">
         <v>1</v>
@@ -1114,46 +1176,46 @@
         <v>31</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
       <c r="I4">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1165,22 +1227,22 @@
         <v>1</v>
       </c>
       <c r="S4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1188,52 +1250,52 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -1242,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1254,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1262,70 +1324,70 @@
         <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
       <c r="S6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="b">
         <v>1</v>
       </c>
       <c r="U6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1336,46 +1398,46 @@
         <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1390,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
@@ -1410,46 +1472,46 @@
         <v>31</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>900</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1461,22 +1523,22 @@
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1484,52 +1546,52 @@
         <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>900</v>
+        <v>3700</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
@@ -1538,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -1550,27 +1612,27 @@
         <v>1</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1579,49 +1641,49 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="b">
         <v>1</v>
       </c>
       <c r="S10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="b">
         <v>1</v>
       </c>
       <c r="U10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -1629,52 +1691,52 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
@@ -1683,42 +1745,42 @@
         <v>1</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
-        <v>13.1060606060606</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1727,31 +1789,31 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
         <v>1</v>
@@ -1760,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -1772,27 +1834,27 @@
         <v>1</v>
       </c>
       <c r="X12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
-        <v>14.148018648018599</v>
+        <v>13.1060606060606</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1801,49 +1863,49 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
       <c r="S13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="b">
         <v>1</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -1851,7 +1913,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>15.189976689976699</v>
@@ -1860,10 +1922,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1878,10 +1940,10 @@
         <v>2900</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1893,7 +1955,7 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1934,10 +1996,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1952,10 +2014,10 @@
         <v>800</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1967,7 +2029,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -2002,70 +2064,70 @@
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>19.357808857808902</v>
+        <v>17.273892773892801</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>8</v>
       </c>
       <c r="I16">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
       <c r="S16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -2073,19 +2135,19 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
-        <v>20.399766899766899</v>
+        <v>18.315850815850801</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2097,25 +2159,25 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -2127,93 +2189,93 @@
         <v>1</v>
       </c>
       <c r="S17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="b">
         <v>1</v>
       </c>
       <c r="V17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
-        <v>21.4417249417249</v>
+        <v>19.357808857808902</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
       </c>
       <c r="S18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -2221,55 +2283,55 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
-        <v>22.483682983683</v>
+        <v>20.399766899766899</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
@@ -2278,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -2290,78 +2352,78 @@
         <v>1</v>
       </c>
       <c r="X19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
-        <v>23.525641025641001</v>
+        <v>22.483682983683</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="H20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
       </c>
       <c r="S20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="b">
         <v>1</v>
       </c>
       <c r="U20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -2369,52 +2431,52 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
-        <v>24.567599067599101</v>
+        <v>23.525641025641001</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="b">
         <v>1</v>
@@ -2426,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="b">
         <v>1</v>
@@ -2446,19 +2508,19 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>25.609557109557102</v>
+        <v>24.567599067599101</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2467,25 +2529,25 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2497,22 +2559,22 @@
         <v>1</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
       </c>
       <c r="U22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2520,19 +2582,19 @@
         <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>26.651515151515198</v>
+        <v>25.609557109557102</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2541,31 +2603,31 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>800</v>
+        <v>3700</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
@@ -2574,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -2586,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2594,70 +2656,70 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>27.693473193473199</v>
+        <v>26.651515151515198</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>1500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>7</v>
-      </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
         <v>1</v>
       </c>
       <c r="S24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="b">
         <v>1</v>
       </c>
       <c r="U24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -2668,49 +2730,49 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>28.7354312354312</v>
+        <v>27.693473193473199</v>
       </c>
       <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1500</v>
+      </c>
+      <c r="J25" t="s">
         <v>61</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>900</v>
-      </c>
-      <c r="J25" t="s">
-        <v>56</v>
-      </c>
       <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="b">
         <v>1</v>
@@ -2722,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="b">
         <v>1</v>
@@ -2742,19 +2804,19 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>29.7773892773893</v>
+        <v>28.7354312354312</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2763,25 +2825,25 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>3700</v>
+        <v>900</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -2793,22 +2855,22 @@
         <v>1</v>
       </c>
       <c r="S26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="b">
         <v>0</v>
       </c>
       <c r="U26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2816,16 +2878,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>30.819347319347301</v>
+        <v>29.7773892773893</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2837,31 +2899,31 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>800</v>
+        <v>3700</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" t="s">
+        <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
@@ -2870,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -2882,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2890,19 +2952,19 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>31.861305361305401</v>
+        <v>30.819347319347301</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2911,49 +2973,49 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>4200</v>
+        <v>800</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
       </c>
       <c r="S28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="b">
         <v>1</v>
       </c>
       <c r="U28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -2964,70 +3026,70 @@
         <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>34.987179487179503</v>
+        <v>31.861305361305401</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
       </c>
       <c r="S29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="b">
         <v>1</v>
       </c>
       <c r="U29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -3035,49 +3097,49 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
-        <v>36.0291375291375</v>
+        <v>32.903263403263402</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>4200</v>
+        <v>1500</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -3092,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="b">
         <v>1</v>
@@ -3109,55 +3171,55 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>37.071095571095597</v>
+        <v>33.945221445221399</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="b">
         <v>1</v>
@@ -3166,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -3178,78 +3240,78 @@
         <v>1</v>
       </c>
       <c r="X31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2">
-        <v>38.113053613053602</v>
+        <v>34.987179487179503</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="J32" t="s">
         <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
       </c>
       <c r="S32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
       </c>
       <c r="U32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -3257,73 +3319,73 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2">
-        <v>39.155011655011698</v>
+        <v>37.071095571095597</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="b">
         <v>1</v>
       </c>
       <c r="S33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -3331,52 +3393,52 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>42.280885780885797</v>
+        <v>38.113053613053602</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>800</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="b">
         <v>1</v>
@@ -3405,19 +3467,19 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>43.322843822843801</v>
+        <v>39.155011655011698</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3429,25 +3491,25 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
         <v>62</v>
       </c>
-      <c r="K35" t="s">
-        <v>53</v>
-      </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -3479,19 +3541,19 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
-        <v>44.364801864801898</v>
+        <v>40.196969696969703</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -3506,25 +3568,25 @@
         <v>4200</v>
       </c>
       <c r="J36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" t="s">
+        <v>69</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="b">
         <v>1</v>
@@ -3553,19 +3615,19 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>45.406759906759902</v>
+        <v>41.2389277389277</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -3577,28 +3639,28 @@
         <v>5</v>
       </c>
       <c r="I37">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" t="s">
+        <v>69</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
@@ -3627,73 +3689,73 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
-        <v>46.448717948718198</v>
+        <v>42.280885780885797</v>
       </c>
       <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>222</v>
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" t="s">
+        <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="b">
         <v>1</v>
       </c>
       <c r="S38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="b">
         <v>1</v>
       </c>
       <c r="U38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -3701,49 +3763,49 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
-        <v>47.490675990676301</v>
+        <v>44.364801864801898</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3755,22 +3817,22 @@
         <v>1</v>
       </c>
       <c r="S39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="b">
         <v>1</v>
       </c>
       <c r="V39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3778,70 +3840,70 @@
         <v>31</v>
       </c>
       <c r="B40" s="2">
-        <v>48.532634032634398</v>
+        <v>45.406759906759902</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
       <c r="I40">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="J40" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N40" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="b">
         <v>1</v>
       </c>
       <c r="S40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -3852,52 +3914,52 @@
         <v>31</v>
       </c>
       <c r="B41" s="2">
-        <v>49.574592074592502</v>
+        <v>46.448717948718198</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="J41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" t="s">
         <v>62</v>
       </c>
-      <c r="K41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" t="s">
-        <v>60</v>
-      </c>
-      <c r="M41" t="s">
-        <v>60</v>
-      </c>
-      <c r="N41" t="s">
-        <v>60</v>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>222</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="b">
         <v>1</v>
@@ -3906,10 +3968,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -3918,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="X41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3926,16 +3988,16 @@
         <v>31</v>
       </c>
       <c r="B42" s="2">
-        <v>50.616550116550599</v>
+        <v>47.490675990676301</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -3947,49 +4009,49 @@
         <v>10</v>
       </c>
       <c r="I42">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="J42" t="s">
         <v>65</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" t="s">
-        <v>60</v>
-      </c>
-      <c r="M42" t="s">
-        <v>60</v>
-      </c>
-      <c r="N42" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L42">
+        <v>12</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="b">
         <v>1</v>
       </c>
       <c r="S42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="b">
         <v>1</v>
       </c>
       <c r="U42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -4000,46 +4062,46 @@
         <v>31</v>
       </c>
       <c r="B43" s="2">
-        <v>51.658508158508702</v>
+        <v>48.532634032634398</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I43">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="J43" t="s">
         <v>67</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
@@ -4054,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="b">
         <v>1</v>
@@ -4074,46 +4136,46 @@
         <v>31</v>
       </c>
       <c r="B44" s="2">
-        <v>52.700466200466799</v>
+        <v>49.574592074592502</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -4125,75 +4187,75 @@
         <v>1</v>
       </c>
       <c r="S44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="b">
         <v>0</v>
       </c>
       <c r="U44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2">
-        <v>53.742424242424903</v>
+        <v>50.616550116550599</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M45" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
       <c r="Q45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="b">
         <v>1</v>
@@ -4202,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -4214,57 +4276,57 @@
         <v>1</v>
       </c>
       <c r="X45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2">
-        <v>56.8682983682992</v>
+        <v>51.658508158508702</v>
       </c>
       <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
       <c r="H46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="L46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" t="s">
+        <v>69</v>
+      </c>
+      <c r="N46" t="s">
+        <v>69</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="b">
         <v>1</v>
@@ -4276,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="b">
         <v>1</v>
@@ -4293,22 +4355,22 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>57.910256410257198</v>
+        <v>52.700466200466799</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4320,22 +4382,22 @@
         <v>800</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M47" t="s">
-        <v>60</v>
-      </c>
-      <c r="N47">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
+        <v>69</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -4347,75 +4409,75 @@
         <v>1</v>
       </c>
       <c r="S47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="b">
         <v>0</v>
       </c>
       <c r="U47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>58.952214452215301</v>
+        <v>53.742424242424903</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="J48" t="s">
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N48">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>69</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
       <c r="Q48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="b">
         <v>1</v>
@@ -4424,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" t="b">
         <v>0</v>
@@ -4436,80 +4498,376 @@
         <v>1</v>
       </c>
       <c r="X48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
+        <v>55.826340326341104</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>4200</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="2">
+        <v>56.8682983682992</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>1500</v>
+      </c>
+      <c r="J50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2">
+        <v>57.910256410257198</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>800</v>
+      </c>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>96</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="2">
+        <v>58.952214452215301</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>4000</v>
+      </c>
+      <c r="J52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" t="s">
+        <v>69</v>
+      </c>
+      <c r="N52">
+        <v>85</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2">
         <v>59.994172494173398</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>2800</v>
       </c>
-      <c r="J49" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" t="s">
-        <v>60</v>
-      </c>
-      <c r="M49" t="s">
-        <v>60</v>
-      </c>
-      <c r="N49">
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M53" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53">
         <v>41</v>
       </c>
-      <c r="O49" t="s">
-        <v>60</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>1</v>
-      </c>
-      <c r="R49" t="b">
-        <v>1</v>
-      </c>
-      <c r="S49" t="b">
-        <v>0</v>
-      </c>
-      <c r="T49" t="b">
-        <v>1</v>
-      </c>
-      <c r="U49" t="b">
-        <v>1</v>
-      </c>
-      <c r="V49" t="b">
-        <v>1</v>
-      </c>
-      <c r="W49" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" t="b">
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B25CE7-94DA-4906-B637-66536CA8339E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B7B25CE7-94DA-4906-B637-66536CA8339E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11385" windowWidth="21600" xWindow="5280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1545"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -387,6 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,18 +421,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,10 +449,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -486,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -538,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -649,21 +650,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -680,7 +681,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -732,15 +733,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A2:A8"/>
@@ -748,7 +749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,13 +932,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -945,11 +946,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1105,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>2.0</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -1178,8 +1179,8 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="n">
+        <v>3.0</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -2436,8 +2437,8 @@
       <c r="B21" s="2">
         <v>23.525641025641001</v>
       </c>
-      <c r="C21">
-        <v>3</v>
+      <c r="C21" t="n">
+        <v>4.0</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -4064,8 +4065,8 @@
       <c r="B43" s="2">
         <v>48.532634032634398</v>
       </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="C43" t="n">
+        <v>2.0</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
@@ -4138,8 +4139,8 @@
       <c r="B44" s="2">
         <v>49.574592074592502</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="n">
+        <v>3.0</v>
       </c>
       <c r="D44" t="s">
         <v>63</v>
@@ -4872,6 +4873,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Documents\GitHub\ALYS-JavaSwing\ALYS-JavaSwing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonis\eclipse-workspace\ALYS\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B7B25CE7-94DA-4906-B637-66536CA8339E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9C236F2A-D15D-4A17-9EB2-35EB1E6E7061}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11385" windowWidth="21600" xWindow="5280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1545"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
@@ -743,13 +743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -940,17 +940,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1098,15 +1098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -1172,15 +1172,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.0</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2430,15 +2430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>23.525641025641001</v>
       </c>
-      <c r="C21" t="n">
-        <v>4.0</v>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -4058,15 +4058,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="2">
         <v>48.532634032634398</v>
       </c>
-      <c r="C43" t="n">
-        <v>2.0</v>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
@@ -4132,15 +4132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="2">
         <v>49.574592074592502</v>
       </c>
-      <c r="C44" t="n">
-        <v>3.0</v>
+      <c r="C44">
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>63</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Desktop\Google Drive\הנדסת תוכנה - פרויקט\מטלה 3 - סופית\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73D88E-06F0-4FC4-AEB3-99B893BF3CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1B73D88E-06F0-4FC4-AEB3-99B893BF3CE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -402,6 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,18 +436,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -463,10 +464,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -501,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -553,7 +554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -664,21 +665,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -695,7 +696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -747,15 +748,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A2:A8"/>
@@ -763,7 +764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,13 +973,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
@@ -986,11 +987,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5357,6 +5358,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Desktop\Google Drive\הנדסת תוכנה - פרויקט\מטלה 3 - סופית\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1B73D88E-06F0-4FC4-AEB3-99B893BF3CE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DD2240F6-7EAE-4EAF-978C-03F51FC9CB9B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-28920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
     <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -41,369 +49,401 @@
     <t>טלפון</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>כמות חיפושים</t>
+  </si>
+  <si>
+    <t>עיר</t>
+  </si>
+  <si>
+    <t>רחוב</t>
+  </si>
+  <si>
+    <t>סהכ שותפים</t>
+  </si>
+  <si>
+    <t>שותפים חסרים</t>
+  </si>
+  <si>
+    <t>חדרים</t>
+  </si>
+  <si>
+    <t>מחיר</t>
+  </si>
+  <si>
+    <t>תיאור</t>
+  </si>
+  <si>
+    <t>סוג הנכס</t>
+  </si>
+  <si>
+    <t>קומה</t>
+  </si>
+  <si>
+    <t>גינה</t>
+  </si>
+  <si>
+    <t>מספר דירה</t>
+  </si>
+  <si>
+    <t>מספר קומות</t>
+  </si>
+  <si>
+    <t>מעלית</t>
+  </si>
+  <si>
+    <t>חניה</t>
+  </si>
+  <si>
+    <t>מיזוג</t>
+  </si>
+  <si>
+    <t>מרפסת</t>
+  </si>
+  <si>
+    <t>ממד</t>
+  </si>
+  <si>
+    <t>מחסן</t>
+  </si>
+  <si>
+    <t>גישה לנכים</t>
+  </si>
+  <si>
+    <t>מרוהטת</t>
+  </si>
+  <si>
+    <t>חיות מחמד</t>
+  </si>
+  <si>
+    <t>Yoni</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>יונתן</t>
+  </si>
+  <si>
+    <t>שומר</t>
+  </si>
+  <si>
+    <t>yo@gmail.com</t>
+  </si>
+  <si>
+    <t>vfvvv</t>
+  </si>
+  <si>
+    <t>hfghf</t>
+  </si>
+  <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ספיר</t>
+  </si>
+  <si>
+    <t>שמש</t>
+  </si>
+  <si>
+    <t>Sapi</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Lilach</t>
+  </si>
+  <si>
+    <t>lilach</t>
+  </si>
+  <si>
+    <t>naor</t>
+  </si>
+  <si>
+    <t>lilach@gmail.com</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>בניין</t>
+  </si>
+  <si>
+    <t>נתניה</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>תל אביב</t>
+  </si>
+  <si>
+    <t>קרקע</t>
+  </si>
+  <si>
+    <t>אשדוד</t>
+  </si>
+  <si>
+    <t>חולון</t>
+  </si>
+  <si>
+    <t>מודיעין</t>
+  </si>
+  <si>
+    <t>כפר סבא</t>
+  </si>
+  <si>
+    <t>הרצליה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתניה </t>
+  </si>
+  <si>
+    <t>רחובות</t>
+  </si>
+  <si>
+    <t>ראשון לציון</t>
+  </si>
+  <si>
+    <t>חיפה</t>
+  </si>
+  <si>
+    <t>פתח תקווה</t>
+  </si>
+  <si>
+    <t>מזכרת בתיה</t>
+  </si>
+  <si>
+    <t>נחל לכיש</t>
+  </si>
+  <si>
+    <t>מרים הנביאה</t>
+  </si>
+  <si>
+    <t>גבעת חלפון</t>
+  </si>
+  <si>
+    <t>אליהו הנביא</t>
+  </si>
+  <si>
+    <t>בנימין זאב הרצל</t>
+  </si>
+  <si>
+    <t>דוד בן גוריון</t>
+  </si>
+  <si>
+    <t>אליעזר בן יהודה</t>
+  </si>
+  <si>
+    <t>חיים ויצמן</t>
+  </si>
+  <si>
+    <t>זאב זבוטינסקי</t>
+  </si>
+  <si>
+    <t>הרב קוק</t>
+  </si>
+  <si>
+    <t>יצחק רבין</t>
+  </si>
+  <si>
+    <t>חיים נחמן ביאליק</t>
+  </si>
+  <si>
+    <t>זית</t>
+  </si>
+  <si>
+    <t>דקל</t>
+  </si>
+  <si>
+    <t>תאנה</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t>תמר</t>
+  </si>
+  <si>
+    <t>מבצע קדש</t>
+  </si>
+  <si>
+    <t>מבצע קלשון</t>
+  </si>
+  <si>
+    <t>מבצע נחשון</t>
+  </si>
+  <si>
+    <t>מבצע ליטני</t>
+  </si>
+  <si>
+    <t>מסגר</t>
+  </si>
+  <si>
+    <t>בנאי</t>
+  </si>
+  <si>
+    <t>תוכנה</t>
+  </si>
+  <si>
+    <t>מלחמת העצמאות</t>
+  </si>
+  <si>
+    <t>דיזינגוף</t>
+  </si>
+  <si>
+    <t>גדעון סער</t>
+  </si>
+  <si>
+    <t>שדרות בן מימון</t>
+  </si>
+  <si>
+    <t>רחוב ביאליק</t>
+  </si>
+  <si>
+    <t>אבני החושן</t>
+  </si>
+  <si>
+    <t>אדם</t>
+  </si>
+  <si>
+    <t>אחלמה</t>
+  </si>
+  <si>
+    <t>בדולח</t>
+  </si>
+  <si>
+    <t>יהלם</t>
+  </si>
+  <si>
+    <t>ישפה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דירה מרוהטת </t>
+  </si>
+  <si>
+    <t>דירה משופצת</t>
+  </si>
+  <si>
+    <t>דירה עברה שיפוץ  לאחרונה</t>
+  </si>
+  <si>
+    <t>דירה מושקעת ומרוהטת</t>
+  </si>
+  <si>
+    <t>דירה יפה ומסודרת</t>
+  </si>
+  <si>
+    <t>דירה מרוהטת חלקית, נמצאת באזור טוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בניין </t>
+  </si>
+  <si>
+    <t>שדרות מיעמי</t>
+  </si>
+  <si>
+    <t>נחל לקישון</t>
+  </si>
+  <si>
+    <t>כנרת</t>
+  </si>
+  <si>
+    <t>בן יהודה</t>
+  </si>
+  <si>
+    <t>אבן גבירול</t>
+  </si>
+  <si>
+    <t>ביאליק</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>momo</t>
   </si>
   <si>
     <t>Analyst</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>כמות חיפושים</t>
-  </si>
-  <si>
-    <t>עיר</t>
-  </si>
-  <si>
-    <t>רחוב</t>
-  </si>
-  <si>
-    <t>סהכ שותפים</t>
-  </si>
-  <si>
-    <t>שותפים חסרים</t>
-  </si>
-  <si>
-    <t>חדרים</t>
-  </si>
-  <si>
-    <t>מחיר</t>
-  </si>
-  <si>
-    <t>תיאור</t>
-  </si>
-  <si>
-    <t>סוג הנכס</t>
-  </si>
-  <si>
-    <t>קומה</t>
-  </si>
-  <si>
-    <t>גינה</t>
-  </si>
-  <si>
-    <t>מספר דירה</t>
-  </si>
-  <si>
-    <t>מספר קומות</t>
-  </si>
-  <si>
-    <t>מעלית</t>
-  </si>
-  <si>
-    <t>חניה</t>
-  </si>
-  <si>
-    <t>מיזוג</t>
-  </si>
-  <si>
-    <t>מרפסת</t>
-  </si>
-  <si>
-    <t>ממד</t>
-  </si>
-  <si>
-    <t>מחסן</t>
-  </si>
-  <si>
-    <t>גישה לנכים</t>
-  </si>
-  <si>
-    <t>מרוהטת</t>
-  </si>
-  <si>
-    <t>חיות מחמד</t>
-  </si>
-  <si>
-    <t>Yoni</t>
-  </si>
-  <si>
-    <t>sho</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>יונתן</t>
-  </si>
-  <si>
-    <t>שומר</t>
-  </si>
-  <si>
-    <t>yo@gmail.com</t>
-  </si>
-  <si>
-    <t>vvvv</t>
-  </si>
-  <si>
-    <t>vfvvv</t>
-  </si>
-  <si>
-    <t>vvv</t>
-  </si>
-  <si>
-    <t>vv</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>hfghf</t>
-  </si>
-  <si>
-    <t>ghf</t>
-  </si>
-  <si>
-    <t>hgfh</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>gfh</t>
-  </si>
-  <si>
-    <t>Sap</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>ספיר</t>
-  </si>
-  <si>
-    <t>שמש</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>Sapi</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Lilach</t>
-  </si>
-  <si>
-    <t>lilach</t>
-  </si>
-  <si>
-    <t>naor</t>
-  </si>
-  <si>
-    <t>lilach@gmail.com</t>
-  </si>
-  <si>
-    <t>054266</t>
-  </si>
-  <si>
-    <t>ירושלים</t>
-  </si>
-  <si>
-    <t>תמר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">דירה מרוהטת </t>
-  </si>
-  <si>
-    <t>בניין</t>
-  </si>
-  <si>
-    <t>תל אביב</t>
-  </si>
-  <si>
-    <t>מבצע קדש</t>
-  </si>
-  <si>
-    <t>דירה משופצת</t>
-  </si>
-  <si>
-    <t>מבצע קלשון</t>
-  </si>
-  <si>
-    <t>דירה עברה שיפוץ  לאחרונה</t>
-  </si>
-  <si>
-    <t>קרקע</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>מבצע נחשון</t>
-  </si>
-  <si>
-    <t>דירה מושקעת ומרוהטת</t>
-  </si>
-  <si>
-    <t>נתניה</t>
-  </si>
-  <si>
-    <t>מבצע ליטני</t>
-  </si>
-  <si>
-    <t>דירה יפה ומסודרת</t>
-  </si>
-  <si>
-    <t>מסגר</t>
-  </si>
-  <si>
-    <t>דירה מרוהטת חלקית, נמצאת באזור טוב</t>
-  </si>
-  <si>
-    <t>בנאי</t>
-  </si>
-  <si>
-    <t>זית</t>
-  </si>
-  <si>
-    <t>אשדוד</t>
-  </si>
-  <si>
-    <t>נחל לכיש</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בניין </t>
-  </si>
-  <si>
-    <t>חולון</t>
-  </si>
-  <si>
-    <t>מרים הנביאה</t>
-  </si>
-  <si>
-    <t>גבעת חלפון</t>
-  </si>
-  <si>
-    <t>מודיעין</t>
-  </si>
-  <si>
-    <t>אליהו הנביא</t>
-  </si>
-  <si>
-    <t>כפר סבא</t>
-  </si>
-  <si>
-    <t>בנימין זאב הרצל</t>
-  </si>
-  <si>
-    <t>דוד בן גוריון</t>
-  </si>
-  <si>
-    <t>אליעזר בן יהודה</t>
-  </si>
-  <si>
-    <t>הרצליה</t>
-  </si>
-  <si>
-    <t>חיים ויצמן</t>
-  </si>
-  <si>
-    <t>זאב זבוטינסקי</t>
-  </si>
-  <si>
-    <t>הרב קוק</t>
-  </si>
-  <si>
-    <t>יצחק רבין</t>
-  </si>
-  <si>
-    <t>חיים נחמן ביאליק</t>
-  </si>
-  <si>
-    <t>דקל</t>
-  </si>
-  <si>
-    <t>תאנה</t>
-  </si>
-  <si>
-    <t>רימון</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נתניה </t>
-  </si>
-  <si>
-    <t>תוכנה</t>
-  </si>
-  <si>
-    <t>רחובות</t>
-  </si>
-  <si>
-    <t>מלחמת העצמאות</t>
-  </si>
-  <si>
-    <t>דיזינגוף</t>
-  </si>
-  <si>
-    <t>גדעון סער</t>
-  </si>
-  <si>
-    <t>ראשון לציון</t>
-  </si>
-  <si>
-    <t>שדרות בן מימון</t>
-  </si>
-  <si>
-    <t>רחוב ביאליק</t>
-  </si>
-  <si>
-    <t>חיפה</t>
-  </si>
-  <si>
-    <t>אבני החושן</t>
-  </si>
-  <si>
-    <t>אדם</t>
-  </si>
-  <si>
-    <t>אחלמה</t>
-  </si>
-  <si>
-    <t>פתח תקווה</t>
-  </si>
-  <si>
-    <t>בדולח</t>
-  </si>
-  <si>
-    <t>יהלם</t>
-  </si>
-  <si>
-    <t>מזכרת בתיה</t>
-  </si>
-  <si>
-    <t>ישפה</t>
-  </si>
-  <si>
-    <t>שדרות מיעמי</t>
-  </si>
-  <si>
-    <t>נחל לקישון</t>
-  </si>
-  <si>
-    <t>כנרת</t>
-  </si>
-  <si>
-    <t>בן יהודה</t>
-  </si>
-  <si>
-    <t>אבן גבירול</t>
-  </si>
-  <si>
-    <t>ביאליק</t>
+    <t>עמית</t>
+  </si>
+  <si>
+    <t>שור</t>
+  </si>
+  <si>
+    <t>ישראל</t>
+  </si>
+  <si>
+    <t>mom@gmail.com</t>
+  </si>
+  <si>
+    <t>sapi@gmail.com</t>
+  </si>
+  <si>
+    <t>sap@gmail.com</t>
+  </si>
+  <si>
+    <t>il@gmail.com</t>
+  </si>
+  <si>
+    <t>am@gmail.com</t>
+  </si>
+  <si>
+    <t>מוצו</t>
+  </si>
+  <si>
+    <t>מום</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -416,6 +456,14 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,15 +483,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,6 +814,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -787,24 +843,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
       <c r="F2">
         <v>547712222</v>
@@ -818,22 +874,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>54546523</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -844,22 +900,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4">
+        <v>54787895</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -870,22 +926,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <v>526665465</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -896,22 +952,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>547789856</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -922,22 +978,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>12345</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7">
+        <v>547877956</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -948,22 +1004,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>54266444</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -973,22 +1029,35 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E7" xr:uid="{F3A245A5-F217-4575-A9E4-A62BB09FCACA}"/>
+    <hyperlink r:id="rId2" ref="E6" xr:uid="{85E2ED76-129B-42B6-9DDE-36914FA88C01}"/>
+    <hyperlink r:id="rId3" ref="E5" xr:uid="{F5417865-37D2-43AB-BDC8-20E93189C464}"/>
+    <hyperlink r:id="rId4" ref="E4" xr:uid="{CCD4CDDF-F2E5-4F2D-923F-5B4FBC21F473}"/>
+    <hyperlink r:id="rId5" ref="E3" xr:uid="{DAE221E1-DAEA-4577-9CE4-B885FE54969E}"/>
+    <hyperlink r:id="rId6" ref="E2" xr:uid="{B6C48F62-570F-42DE-9C7D-98A8F4D0F9C6}"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -996,90 +1065,90 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1094,10 +1163,10 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <v>22</v>
@@ -1108,8 +1177,8 @@
       <c r="N2">
         <v>222</v>
       </c>
-      <c r="O2" t="s">
-        <v>70</v>
+      <c r="O2">
+        <v>23</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1141,19 +1210,19 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -1168,10 +1237,10 @@
         <v>3500</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -1182,8 +1251,8 @@
       <c r="N3">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
-        <v>70</v>
+      <c r="O3">
+        <v>13</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1215,19 +1284,19 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1242,22 +1311,22 @@
         <v>1700</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1289,19 +1358,19 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1316,22 +1385,22 @@
         <v>1800</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -1363,19 +1432,19 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -1390,22 +1459,22 @@
         <v>1900</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1437,19 +1506,19 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1464,22 +1533,22 @@
         <v>2000</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1511,19 +1580,19 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1538,22 +1607,22 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1585,19 +1654,19 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1612,22 +1681,22 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1659,19 +1728,19 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1686,13 +1755,13 @@
         <v>3700</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1700,8 +1769,8 @@
       <c r="N10">
         <v>4</v>
       </c>
-      <c r="O10" t="s">
-        <v>70</v>
+      <c r="O10">
+        <v>16</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1733,19 +1802,19 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1760,22 +1829,22 @@
         <v>4200</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>12</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
-      <c r="O11" t="s">
-        <v>70</v>
+      <c r="O11">
+        <v>15</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1807,19 +1876,19 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1834,10 +1903,10 @@
         <v>1500</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1848,8 +1917,8 @@
       <c r="N12">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
-        <v>70</v>
+      <c r="O12">
+        <v>5</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1881,19 +1950,19 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1908,22 +1977,22 @@
         <v>800</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1955,19 +2024,19 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13.1060606060606</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1982,22 +2051,22 @@
         <v>4000</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -2029,19 +2098,19 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14.148018648018599</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2056,22 +2125,22 @@
         <v>2800</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -2103,19 +2172,19 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15.189976689976699</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -2130,10 +2199,10 @@
         <v>2900</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -2144,8 +2213,8 @@
       <c r="N16">
         <v>23</v>
       </c>
-      <c r="O16" t="s">
-        <v>70</v>
+      <c r="O16">
+        <v>3</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -2177,19 +2246,19 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16.2319347319347</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2204,22 +2273,22 @@
         <v>800</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>26</v>
       </c>
-      <c r="O17" t="s">
-        <v>70</v>
+      <c r="O17">
+        <v>2</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -2251,19 +2320,19 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17.273892773892801</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -2278,10 +2347,10 @@
         <v>3200</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -2292,8 +2361,8 @@
       <c r="N18">
         <v>69</v>
       </c>
-      <c r="O18" t="s">
-        <v>70</v>
+      <c r="O18">
+        <v>4</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -2325,19 +2394,19 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18.315850815850801</v>
+        <v>112</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2352,22 +2421,22 @@
         <v>4200</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>222</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -2399,19 +2468,19 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19.357808857808902</v>
+        <v>113</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -2426,10 +2495,10 @@
         <v>1500</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2440,8 +2509,8 @@
       <c r="N20">
         <v>22</v>
       </c>
-      <c r="O20" t="s">
-        <v>70</v>
+      <c r="O20">
+        <v>6</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2473,19 +2542,19 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20.399766899766899</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -2500,22 +2569,22 @@
         <v>1800</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -2547,19 +2616,19 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21.4417249417249</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -2574,10 +2643,10 @@
         <v>2500</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2588,8 +2657,8 @@
       <c r="N22">
         <v>47</v>
       </c>
-      <c r="O22" t="s">
-        <v>70</v>
+      <c r="O22">
+        <v>9</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2621,19 +2690,19 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22.483682983683</v>
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2648,10 +2717,10 @@
         <v>4200</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -2662,8 +2731,8 @@
       <c r="N23">
         <v>12</v>
       </c>
-      <c r="O23" t="s">
-        <v>70</v>
+      <c r="O23">
+        <v>12</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2695,19 +2764,19 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23.525641025641001</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.0</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -2722,22 +2791,22 @@
         <v>3500</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>47</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2769,19 +2838,19 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24.567599067599101</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2796,10 +2865,10 @@
         <v>800</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -2810,8 +2879,8 @@
       <c r="N25">
         <v>35</v>
       </c>
-      <c r="O25" t="s">
-        <v>70</v>
+      <c r="O25">
+        <v>11</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2843,19 +2912,19 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25.609557109557102</v>
+        <v>112</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -2870,10 +2939,10 @@
         <v>3700</v>
       </c>
       <c r="J26" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2884,8 +2953,8 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26" t="s">
-        <v>70</v>
+      <c r="O26">
+        <v>2</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2917,19 +2986,19 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26.651515151515198</v>
+        <v>113</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
       </c>
       <c r="C27">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2944,10 +3013,10 @@
         <v>800</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2958,8 +3027,8 @@
       <c r="N27">
         <v>4</v>
       </c>
-      <c r="O27" t="s">
-        <v>70</v>
+      <c r="O27">
+        <v>3</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2991,19 +3060,19 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2">
-        <v>27.693473193473199</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -3018,10 +3087,10 @@
         <v>1500</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -3032,8 +3101,8 @@
       <c r="N28">
         <v>7</v>
       </c>
-      <c r="O28" t="s">
-        <v>70</v>
+      <c r="O28">
+        <v>5</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -3065,19 +3134,19 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2">
-        <v>28.7354312354312</v>
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3092,22 +3161,22 @@
         <v>900</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N29" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
+        <v>47</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
@@ -3139,19 +3208,19 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>29.7773892773893</v>
+        <v>114</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -3166,22 +3235,22 @@
         <v>3700</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" t="s">
-        <v>70</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>96</v>
+      </c>
+      <c r="O30" t="s">
+        <v>47</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
@@ -3213,19 +3282,19 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30.819347319347301</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -3240,10 +3309,10 @@
         <v>800</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -3254,8 +3323,8 @@
       <c r="N31">
         <v>85</v>
       </c>
-      <c r="O31" t="s">
-        <v>70</v>
+      <c r="O31">
+        <v>8</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -3287,19 +3356,19 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31.861305361305401</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -3314,22 +3383,22 @@
         <v>4200</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L32">
         <v>6</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>41</v>
       </c>
-      <c r="O32" t="s">
-        <v>70</v>
+      <c r="O32">
+        <v>8</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -3361,19 +3430,19 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>32.903263403263402</v>
+        <v>112</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -3388,10 +3457,10 @@
         <v>1500</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -3402,8 +3471,8 @@
       <c r="N33">
         <v>23</v>
       </c>
-      <c r="O33" t="s">
-        <v>70</v>
+      <c r="O33">
+        <v>8</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -3435,19 +3504,19 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33.945221445221399</v>
+        <v>113</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -3462,22 +3531,22 @@
         <v>800</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" t="s">
-        <v>70</v>
-      </c>
-      <c r="N34" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>47</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -3509,19 +3578,19 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2">
-        <v>34.987179487179503</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3536,22 +3605,22 @@
         <v>1500</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>69</v>
       </c>
-      <c r="L35" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" t="s">
-        <v>70</v>
-      </c>
-      <c r="N35" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
+      <c r="O35" t="s">
+        <v>47</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
@@ -3583,19 +3652,19 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="2">
-        <v>36.0291375291375</v>
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -3610,22 +3679,22 @@
         <v>4200</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>222</v>
       </c>
-      <c r="O36" t="s">
-        <v>70</v>
+      <c r="O36">
+        <v>6</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -3657,19 +3726,19 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2">
-        <v>37.071095571095597</v>
+        <v>114</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -3684,10 +3753,10 @@
         <v>1400</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3698,8 +3767,8 @@
       <c r="N37">
         <v>22</v>
       </c>
-      <c r="O37" t="s">
-        <v>70</v>
+      <c r="O37">
+        <v>2</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -3731,19 +3800,19 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2">
-        <v>38.113053613053602</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -3758,22 +3827,22 @@
         <v>800</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>35</v>
       </c>
-      <c r="O38" t="s">
-        <v>70</v>
+      <c r="O38">
+        <v>3</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -3805,19 +3874,19 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>39.155011655011698</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="3">
+        <v>38</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -3832,10 +3901,10 @@
         <v>1300</v>
       </c>
       <c r="J39" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L39">
         <v>3</v>
@@ -3846,8 +3915,8 @@
       <c r="N39">
         <v>47</v>
       </c>
-      <c r="O39" t="s">
-        <v>70</v>
+      <c r="O39">
+        <v>5</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3879,19 +3948,19 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2">
-        <v>40.196969696969703</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -3906,22 +3975,22 @@
         <v>4200</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" t="s">
-        <v>70</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>12</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
@@ -3953,19 +4022,19 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2">
-        <v>41.2389277389277</v>
+        <v>43</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -3980,22 +4049,22 @@
         <v>2800</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" t="s">
-        <v>70</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>59</v>
+      </c>
+      <c r="O41" t="s">
+        <v>47</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
@@ -4027,19 +4096,19 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42.280885780885797</v>
+        <v>43</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -4054,22 +4123,22 @@
         <v>800</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M42" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" t="s">
-        <v>70</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>47</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -4101,19 +4170,19 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2">
-        <v>43.322843822843801</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -4128,10 +4197,10 @@
         <v>2900</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4142,8 +4211,8 @@
       <c r="N43">
         <v>26</v>
       </c>
-      <c r="O43" t="s">
-        <v>70</v>
+      <c r="O43">
+        <v>6</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -4175,19 +4244,19 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44.364801864801898</v>
+        <v>30</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43</v>
       </c>
       <c r="C44">
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -4202,10 +4271,10 @@
         <v>4200</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -4216,8 +4285,8 @@
       <c r="N44">
         <v>4</v>
       </c>
-      <c r="O44" t="s">
-        <v>70</v>
+      <c r="O44">
+        <v>2</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -4249,19 +4318,19 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45.406759906759902</v>
+        <v>112</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44</v>
       </c>
       <c r="C45">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -4276,22 +4345,22 @@
         <v>2900</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L45">
         <v>7</v>
       </c>
       <c r="M45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>7</v>
       </c>
-      <c r="O45" t="s">
-        <v>70</v>
+      <c r="O45">
+        <v>5</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -4323,19 +4392,19 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2">
-        <v>46.448717948718198</v>
+        <v>113</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -4350,10 +4419,10 @@
         <v>500</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L46">
         <v>22</v>
@@ -4364,8 +4433,8 @@
       <c r="N46">
         <v>222</v>
       </c>
-      <c r="O46" t="s">
-        <v>70</v>
+      <c r="O46">
+        <v>23</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -4397,19 +4466,19 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="2">
-        <v>47.490675990676301</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -4424,10 +4493,10 @@
         <v>3500</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L47">
         <v>12</v>
@@ -4438,8 +4507,8 @@
       <c r="N47">
         <v>22</v>
       </c>
-      <c r="O47" t="s">
-        <v>70</v>
+      <c r="O47">
+        <v>13</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -4471,19 +4540,19 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="2">
-        <v>48.532634032634398</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.0</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -4498,22 +4567,22 @@
         <v>1700</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48" t="s">
-        <v>70</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>47</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -4545,19 +4614,19 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2">
-        <v>49.574592074592502</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.0</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -4572,22 +4641,22 @@
         <v>1800</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" t="s">
-        <v>70</v>
-      </c>
-      <c r="N49" t="s">
-        <v>70</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49" t="s">
+        <v>47</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -4619,19 +4688,19 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="2">
-        <v>50.616550116550599</v>
+        <v>43</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -4646,22 +4715,22 @@
         <v>1900</v>
       </c>
       <c r="J50" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>47</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
@@ -4693,19 +4762,19 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2">
-        <v>51.658508158508702</v>
+        <v>30</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F51">
         <v>7</v>
@@ -4720,22 +4789,22 @@
         <v>2000</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M51" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>59</v>
+      </c>
+      <c r="O51" t="s">
+        <v>47</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -4767,19 +4836,19 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2">
-        <v>52.700466200466799</v>
+        <v>112</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -4794,22 +4863,22 @@
         <v>800</v>
       </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" t="s">
-        <v>70</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>35</v>
+      </c>
+      <c r="O52" t="s">
+        <v>47</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -4841,19 +4910,19 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
-        <v>53.742424242424903</v>
-      </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -4868,22 +4937,22 @@
         <v>900</v>
       </c>
       <c r="J53" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s">
-        <v>70</v>
-      </c>
-      <c r="N53" t="s">
-        <v>70</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>47</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -4915,19 +4984,19 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2">
-        <v>54.784382284383</v>
+        <v>37</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -4942,22 +5011,22 @@
         <v>3700</v>
       </c>
       <c r="J54" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="M54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>4</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -4989,19 +5058,19 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2">
-        <v>55.826340326341104</v>
+        <v>41</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
       </c>
       <c r="C55">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -5016,10 +5085,10 @@
         <v>4200</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L55">
         <v>12</v>
@@ -5031,7 +5100,7 @@
         <v>7</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -5063,19 +5132,19 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="2">
-        <v>56.8682983682992</v>
+        <v>114</v>
+      </c>
+      <c r="B56" s="3">
+        <v>55</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -5090,22 +5159,22 @@
         <v>1500</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>8</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -5137,19 +5206,19 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="2">
-        <v>57.910256410257198</v>
+        <v>43</v>
+      </c>
+      <c r="B57" s="3">
+        <v>56</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -5164,22 +5233,22 @@
         <v>800</v>
       </c>
       <c r="J57" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>70</v>
-      </c>
-      <c r="M57" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
       </c>
       <c r="N57">
         <v>96</v>
       </c>
-      <c r="O57">
-        <v>2</v>
+      <c r="O57" t="s">
+        <v>47</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -5211,19 +5280,19 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="2">
-        <v>58.952214452215301</v>
+        <v>30</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57</v>
       </c>
       <c r="C58">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -5238,22 +5307,22 @@
         <v>4000</v>
       </c>
       <c r="J58" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>70</v>
-      </c>
-      <c r="M58" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
       </c>
       <c r="N58">
         <v>85</v>
       </c>
-      <c r="O58">
-        <v>1</v>
+      <c r="O58" t="s">
+        <v>47</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -5285,19 +5354,19 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="2">
-        <v>59.994172494173398</v>
+        <v>112</v>
+      </c>
+      <c r="B59" s="3">
+        <v>58</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -5312,22 +5381,22 @@
         <v>2800</v>
       </c>
       <c r="J59" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K59" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L59" t="s">
-        <v>70</v>
-      </c>
-      <c r="M59" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
       </c>
       <c r="N59">
         <v>41</v>
       </c>
-      <c r="O59">
-        <v>1</v>
+      <c r="O59" t="s">
+        <v>47</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -5355,9 +5424,84 @@
       </c>
       <c r="X59" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1212.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Desktop\Google Drive\הנדסת תוכנה - פרויקט\מטלה 3 - סופית\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DD2240F6-7EAE-4EAF-978C-03F51FC9CB9B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2240F6-7EAE-4EAF-978C-03F51FC9CB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-28920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
-    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
+    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
+    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -407,33 +407,6 @@
   </si>
   <si>
     <t>מום</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
-  </si>
-  <si>
-    <t>0000000</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>great</t>
   </si>
 </sst>
 </file>
@@ -484,21 +457,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -515,10 +488,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -553,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -605,7 +578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -716,21 +689,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -747,7 +720,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -799,15 +772,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A2:A8"/>
@@ -815,12 +788,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,20 +1003,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E7" xr:uid="{F3A245A5-F217-4575-A9E4-A62BB09FCACA}"/>
-    <hyperlink r:id="rId2" ref="E6" xr:uid="{85E2ED76-129B-42B6-9DDE-36914FA88C01}"/>
-    <hyperlink r:id="rId3" ref="E5" xr:uid="{F5417865-37D2-43AB-BDC8-20E93189C464}"/>
-    <hyperlink r:id="rId4" ref="E4" xr:uid="{CCD4CDDF-F2E5-4F2D-923F-5B4FBC21F473}"/>
-    <hyperlink r:id="rId5" ref="E3" xr:uid="{DAE221E1-DAEA-4577-9CE4-B885FE54969E}"/>
-    <hyperlink r:id="rId6" ref="E2" xr:uid="{B6C48F62-570F-42DE-9C7D-98A8F4D0F9C6}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{F3A245A5-F217-4575-A9E4-A62BB09FCACA}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{85E2ED76-129B-42B6-9DDE-36914FA88C01}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{F5417865-37D2-43AB-BDC8-20E93189C464}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{CCD4CDDF-F2E5-4F2D-923F-5B4FBC21F473}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{DAE221E1-DAEA-4577-9CE4-B885FE54969E}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{B6C48F62-570F-42DE-9C7D-98A8F4D0F9C6}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
@@ -1051,16 +1024,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1262,8 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -1363,8 +1336,8 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.0</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2769,8 +2742,8 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.0</v>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -4545,8 +4518,8 @@
       <c r="B48" s="3">
         <v>47</v>
       </c>
-      <c r="C48" t="n">
-        <v>2.0</v>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
@@ -4619,8 +4592,8 @@
       <c r="B49" s="3">
         <v>48</v>
       </c>
-      <c r="C49" t="n">
-        <v>3.0</v>
+      <c r="C49">
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -5426,82 +5399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1212.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>134</v>
-      </c>
-      <c r="K60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M60" t="s">
-        <v>47</v>
-      </c>
-      <c r="N60" t="s">
-        <v>47</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="b">
-        <v>1</v>
-      </c>
-      <c r="R60" t="b">
-        <v>0</v>
-      </c>
-      <c r="S60" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60" t="b">
-        <v>1</v>
-      </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
-      <c r="V60" t="b">
-        <v>0</v>
-      </c>
-      <c r="W60" t="b">
-        <v>0</v>
-      </c>
-      <c r="X60" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yonatan\Desktop\Google Drive\הנדסת תוכנה - פרויקט\מטלה 3 - סופית\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonis\eclipse-workspace\ALYS\ALYS-JavaSwing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2240F6-7EAE-4EAF-978C-03F51FC9CB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{70F2A467-2C88-47D7-912C-29565BCAD5FD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="משתמשים" sheetId="1" r:id="rId1"/>
-    <sheet name="נכסים" sheetId="2" r:id="rId2"/>
+    <sheet name="משתמשים" r:id="rId1" sheetId="1"/>
+    <sheet name="נכסים" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
   <si>
     <t>שם משתמש</t>
   </si>
@@ -407,6 +407,33 @@
   </si>
   <si>
     <t>מום</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
 </sst>
 </file>
@@ -457,21 +484,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,10 +515,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -578,7 +605,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,21 +716,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -720,7 +747,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -772,28 +799,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -845,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -871,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -897,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -923,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -949,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1003,37 +1030,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{F3A245A5-F217-4575-A9E4-A62BB09FCACA}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{85E2ED76-129B-42B6-9DDE-36914FA88C01}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{F5417865-37D2-43AB-BDC8-20E93189C464}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{CCD4CDDF-F2E5-4F2D-923F-5B4FBC21F473}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{DAE221E1-DAEA-4577-9CE4-B885FE54969E}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{B6C48F62-570F-42DE-9C7D-98A8F4D0F9C6}"/>
+    <hyperlink r:id="rId1" ref="E7" xr:uid="{F3A245A5-F217-4575-A9E4-A62BB09FCACA}"/>
+    <hyperlink r:id="rId2" ref="E6" xr:uid="{85E2ED76-129B-42B6-9DDE-36914FA88C01}"/>
+    <hyperlink r:id="rId3" ref="E5" xr:uid="{F5417865-37D2-43AB-BDC8-20E93189C464}"/>
+    <hyperlink r:id="rId4" ref="E4" xr:uid="{CCD4CDDF-F2E5-4F2D-923F-5B4FBC21F473}"/>
+    <hyperlink r:id="rId5" ref="E3" xr:uid="{DAE221E1-DAEA-4577-9CE4-B885FE54969E}"/>
+    <hyperlink r:id="rId6" ref="E2" xr:uid="{B6C48F62-570F-42DE-9C7D-98A8F4D0F9C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18" r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,15 +1134,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5</v>
+      <c r="C2" t="n">
+        <v>6.0</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1181,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -1329,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -1403,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1995,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2217,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2365,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -2513,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2587,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2661,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -2735,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2743,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -2809,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2883,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -2957,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -3031,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3105,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -3253,15 +3280,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="n">
+        <v>3.0</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -3327,15 +3354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" t="n">
+        <v>2.0</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -3401,15 +3428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="n">
+        <v>3.0</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
@@ -3475,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -3549,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3623,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3697,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -3771,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3845,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3919,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3993,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4067,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4141,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -4215,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -4289,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -4363,15 +4390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46">
-        <v>5</v>
+      <c r="C46" t="n">
+        <v>6.0</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -4437,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -4511,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4519,7 +4546,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
@@ -4585,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -4593,7 +4620,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -4659,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -4733,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -4807,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -4881,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -4955,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -5029,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -5103,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -5177,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -5251,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -5325,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5399,8 +5426,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1212.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
 </worksheet>
 </file>